--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,75 +40,72 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -130,52 +127,58 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>dilemma</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
@@ -184,16 +187,10 @@
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>positive</t>
@@ -562,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -673,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -723,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.8666666666666667</v>
@@ -773,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,38 +870,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8">
-        <v>0.7543859649122807</v>
-      </c>
-      <c r="L8">
-        <v>43</v>
-      </c>
-      <c r="M8">
-        <v>43</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -915,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,16 +941,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.64</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.5833333333333334</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.4736842105263158</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.4074074074074074</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6875</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.3939393939393939</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L14">
         <v>13</v>
@@ -1215,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.55</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.2204007285974499</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L17">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>856</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,7 +1370,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5652173913043478</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1391,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.2173913043478261</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.1864406779661017</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>48</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5507246376811594</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.1475409836065574</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5416666666666666</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,16 +1541,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.1368421052631579</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5319148936170213</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.03174603174603174</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>305</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,7 +1620,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1641,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.03162650602409638</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1665,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>643</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.03148148148148148</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>523</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,13 +1720,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.358974358974359</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1741,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.02639296187683285</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1765,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>332</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,87 +1770,63 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1153846153846154</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L26">
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K26">
-        <v>0.0204865556978233</v>
-      </c>
-      <c r="L26">
-        <v>16</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.04026845637583892</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>0.08</v>
-      </c>
-      <c r="F27">
-        <v>0.92</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>286</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K27">
-        <v>0.01785714285714286</v>
+        <v>0.01792573623559539</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1865,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1705</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.01623376623376623</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1891,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>606</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
